--- a/クリックポスト発送情報/20200619121937/英子日本发货表格6.18.xlsx
+++ b/クリックポスト発送情報/20200619121937/英子日本发货表格6.18.xlsx
@@ -261,14 +261,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>628484318803</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 628484318792</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>628484318781</t>
     <phoneticPr fontId="7"/>
   </si>
@@ -277,15 +269,23 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>628484318766</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>628484318755</t>
     <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>628484318744</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>628484508002</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 628484507991</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>628484507980</t>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -294,7 +294,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="000000"/>
+    <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -444,7 +444,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1235,8 +1235,8 @@
   <dimension ref="A1:FY258"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="99.9" customHeight="1"/>
@@ -1696,7 +1696,7 @@
         <v>35</v>
       </c>
       <c r="K5" s="20" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:181" ht="121.95" customHeight="1">
@@ -1723,7 +1723,7 @@
         <v>41</v>
       </c>
       <c r="K6" s="20" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:181" ht="121.95" customHeight="1">
@@ -1750,7 +1750,7 @@
         <v>47</v>
       </c>
       <c r="K7" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:181" ht="121.95" customHeight="1">
@@ -1777,7 +1777,7 @@
         <v>53</v>
       </c>
       <c r="K8" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:181" ht="121.95" customHeight="1">
@@ -1804,7 +1804,7 @@
         <v>59</v>
       </c>
       <c r="K9" s="20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:181" ht="121.95" customHeight="1">
@@ -1831,7 +1831,7 @@
         <v>65</v>
       </c>
       <c r="K10" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:181" ht="121.95" customHeight="1">
@@ -1858,7 +1858,7 @@
         <v>65</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:181" ht="121.95" customHeight="1"/>

--- a/クリックポスト発送情報/20200619121937/英子日本发货表格6.18.xlsx
+++ b/クリックポスト発送情報/20200619121937/英子日本发货表格6.18.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="77">
   <si>
     <t>序号</t>
   </si>
@@ -254,10 +254,6 @@
   </si>
   <si>
     <t>628484318825</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>628484318814</t>
     <phoneticPr fontId="7"/>
   </si>
   <si>
@@ -1235,8 +1231,8 @@
   <dimension ref="A1:FY258"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="99.9" customHeight="1"/>
@@ -1668,9 +1664,7 @@
       <c r="I4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="20" t="s">
-        <v>70</v>
-      </c>
+      <c r="K4" s="20"/>
     </row>
     <row r="5" spans="1:181" ht="121.95" customHeight="1">
       <c r="A5" s="12" t="s">
@@ -1696,7 +1690,7 @@
         <v>35</v>
       </c>
       <c r="K5" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:181" ht="121.95" customHeight="1">
@@ -1723,7 +1717,7 @@
         <v>41</v>
       </c>
       <c r="K6" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:181" ht="121.95" customHeight="1">
@@ -1750,7 +1744,7 @@
         <v>47</v>
       </c>
       <c r="K7" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:181" ht="121.95" customHeight="1">
@@ -1777,7 +1771,7 @@
         <v>53</v>
       </c>
       <c r="K8" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:181" ht="121.95" customHeight="1">
@@ -1804,7 +1798,7 @@
         <v>59</v>
       </c>
       <c r="K9" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:181" ht="121.95" customHeight="1">
@@ -1831,7 +1825,7 @@
         <v>65</v>
       </c>
       <c r="K10" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:181" ht="121.95" customHeight="1">
@@ -1858,7 +1852,7 @@
         <v>65</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:181" ht="121.95" customHeight="1"/>
